--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.4571627172214</v>
+        <v>253.5300231303712</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.3757041469342</v>
+        <v>346.8909626020371</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.3265141372246</v>
+        <v>313.784175995926</v>
       </c>
       <c r="AD2" t="n">
-        <v>222457.1627172214</v>
+        <v>253530.0231303712</v>
       </c>
       <c r="AE2" t="n">
-        <v>304375.7041469342</v>
+        <v>346890.9626020371</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.837198096674371e-06</v>
+        <v>6.486973769620385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.280555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>275326.5141372246</v>
+        <v>313784.175995926</v>
       </c>
     </row>
     <row r="3">
@@ -3058,28 +3058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.70530405869847</v>
+        <v>106.4489316132882</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.2657780642255</v>
+        <v>145.648124428661</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.0740967893594</v>
+        <v>131.7476718516556</v>
       </c>
       <c r="AD3" t="n">
-        <v>85705.30405869847</v>
+        <v>106448.9316132882</v>
       </c>
       <c r="AE3" t="n">
-        <v>117265.7780642255</v>
+        <v>145648.124428661</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.906460566960351e-06</v>
+        <v>1.167571426078273e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.933333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>106074.0967893594</v>
+        <v>131747.6718516556</v>
       </c>
     </row>
     <row r="4">
@@ -3164,28 +3164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.56747517452744</v>
+        <v>83.06730023367976</v>
       </c>
       <c r="AB4" t="n">
-        <v>99.29002098480748</v>
+        <v>113.6563448503217</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.81392073646187</v>
+        <v>102.8091428155181</v>
       </c>
       <c r="AD4" t="n">
-        <v>72567.47517452744</v>
+        <v>83067.30023367977</v>
       </c>
       <c r="AE4" t="n">
-        <v>99290.02098480749</v>
+        <v>113656.3448503217</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.013285718443772e-06</v>
+        <v>1.354685709582474e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.529166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>89813.92073646186</v>
+        <v>102809.1428155181</v>
       </c>
     </row>
     <row r="5">
@@ -3270,28 +3270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.60009122105522</v>
+        <v>78.92932407961531</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.86167123104237</v>
+        <v>107.9945833217097</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.90364506445763</v>
+        <v>97.68773186086287</v>
       </c>
       <c r="AD5" t="n">
-        <v>68600.09122105522</v>
+        <v>78929.32407961531</v>
       </c>
       <c r="AE5" t="n">
-        <v>93861.67123104236</v>
+        <v>107994.5833217097</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.443498895157179e-06</v>
+        <v>1.427415381660223e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>84903.64506445764</v>
+        <v>97687.73186086287</v>
       </c>
     </row>
     <row r="6">
@@ -3376,28 +3376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.49587171205788</v>
+        <v>74.82510457061797</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.24609703344923</v>
+        <v>102.3790091241166</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.82401338677312</v>
+        <v>92.60810018317835</v>
       </c>
       <c r="AD6" t="n">
-        <v>64495.87171205787</v>
+        <v>74825.10457061797</v>
       </c>
       <c r="AE6" t="n">
-        <v>88246.09703344923</v>
+        <v>102379.0091241166</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.887571092483597e-06</v>
+        <v>1.502487989935799e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.279166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>79824.01338677312</v>
+        <v>92608.10018317835</v>
       </c>
     </row>
     <row r="7">
@@ -3482,28 +3482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.98154669615006</v>
+        <v>73.31077955471017</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.17413073938053</v>
+        <v>100.3070428300479</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.94979264778671</v>
+        <v>90.73387944419196</v>
       </c>
       <c r="AD7" t="n">
-        <v>62981.54669615006</v>
+        <v>73310.77955471017</v>
       </c>
       <c r="AE7" t="n">
-        <v>86174.13073938053</v>
+        <v>100307.0428300479</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.030829600293896e-06</v>
+        <v>1.526706551475422e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.243055555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>77949.79264778671</v>
+        <v>90733.87944419196</v>
       </c>
     </row>
     <row r="8">
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.77222246512933</v>
+        <v>71.10145532368942</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.1512358579934</v>
+        <v>97.28414794866073</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.21539861121857</v>
+        <v>87.99948540762382</v>
       </c>
       <c r="AD8" t="n">
-        <v>60772.22246512933</v>
+        <v>71101.45532368943</v>
       </c>
       <c r="AE8" t="n">
-        <v>83151.23585799339</v>
+        <v>97284.14794866073</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.200201420627656e-06</v>
+        <v>1.555339698061474e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.202777777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>75215.39861121858</v>
+        <v>87999.48540762383</v>
       </c>
     </row>
     <row r="9">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>59.86382589729503</v>
+        <v>70.19305875585513</v>
       </c>
       <c r="AB9" t="n">
-        <v>81.90832759825496</v>
+        <v>96.04123968892227</v>
       </c>
       <c r="AC9" t="n">
-        <v>74.09111177135649</v>
+        <v>86.87519856776171</v>
       </c>
       <c r="AD9" t="n">
-        <v>59863.82589729503</v>
+        <v>70193.05875585513</v>
       </c>
       <c r="AE9" t="n">
-        <v>81908.32759825495</v>
+        <v>96041.23968892227</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.2662870662876e-06</v>
+        <v>1.566511804352156e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.186111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>74091.11177135649</v>
+        <v>86875.19856776172</v>
       </c>
     </row>
     <row r="10">
@@ -3800,28 +3800,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>60.04310801807376</v>
+        <v>70.37234087663386</v>
       </c>
       <c r="AB10" t="n">
-        <v>82.15362930527324</v>
+        <v>96.28654139594059</v>
       </c>
       <c r="AC10" t="n">
-        <v>74.31300222774014</v>
+        <v>87.09708902414538</v>
       </c>
       <c r="AD10" t="n">
-        <v>60043.10801807376</v>
+        <v>70372.34087663385</v>
       </c>
       <c r="AE10" t="n">
-        <v>82153.62930527324</v>
+        <v>96286.54139594059</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.258409307202308e-06</v>
+        <v>1.56518003009234e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3</v>
+        <v>2.188888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>74313.00222774014</v>
+        <v>87097.08902414537</v>
       </c>
     </row>
   </sheetData>
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4433865098981</v>
+        <v>165.5392708515976</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0020579321124</v>
+        <v>226.498133456258</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0095808242705</v>
+        <v>204.8814694913848</v>
       </c>
       <c r="AD2" t="n">
-        <v>145443.3865098981</v>
+        <v>165539.2708515976</v>
       </c>
       <c r="AE2" t="n">
-        <v>199002.0579321124</v>
+        <v>226498.133456258</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.033632225276591e-06</v>
+        <v>8.717199022711117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.163888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>180009.5808242705</v>
+        <v>204881.4694913848</v>
       </c>
     </row>
     <row r="3">
@@ -4203,28 +4203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.06851997170313</v>
+        <v>92.16431480485149</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.60732846395356</v>
+        <v>126.1032815185509</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.19638343163307</v>
+        <v>114.0681613175208</v>
       </c>
       <c r="AD3" t="n">
-        <v>72068.51997170312</v>
+        <v>92164.31480485148</v>
       </c>
       <c r="AE3" t="n">
-        <v>98607.32846395357</v>
+        <v>126103.2815185509</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.836734850217749e-06</v>
+        <v>1.357158694163647e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.675</v>
       </c>
       <c r="AH3" t="n">
-        <v>89196.38343163306</v>
+        <v>114068.1613175208</v>
       </c>
     </row>
     <row r="4">
@@ -4309,28 +4309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.84795791602915</v>
+        <v>74.85327441386858</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.72783691066955</v>
+        <v>102.4175523464178</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.25977668623784</v>
+        <v>92.64296489443889</v>
       </c>
       <c r="AD4" t="n">
-        <v>64847.95791602915</v>
+        <v>74853.27441386858</v>
       </c>
       <c r="AE4" t="n">
-        <v>88727.83691066955</v>
+        <v>102417.5523464178</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.639302943220714e-06</v>
+        <v>1.496146714799186e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.426388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>80259.77668623785</v>
+        <v>92642.96489443889</v>
       </c>
     </row>
     <row r="5">
@@ -4415,28 +4415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.84519700764703</v>
+        <v>69.85051350548645</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.88283872958996</v>
+        <v>95.57255416533819</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.06805552454301</v>
+        <v>86.45124373274408</v>
       </c>
       <c r="AD5" t="n">
-        <v>59845.19700764703</v>
+        <v>69850.51350548645</v>
       </c>
       <c r="AE5" t="n">
-        <v>81882.83872958996</v>
+        <v>95572.5541653382</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.238286162688328e-06</v>
+        <v>1.599878090109915e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.269444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>74068.05552454302</v>
+        <v>86451.24373274407</v>
       </c>
     </row>
     <row r="6">
@@ -4521,28 +4521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.2424143756322</v>
+        <v>67.24773087347162</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.32159670580339</v>
+        <v>92.01131214155161</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.84669344127094</v>
+        <v>83.22988164947199</v>
       </c>
       <c r="AD6" t="n">
-        <v>57242.4143756322</v>
+        <v>67247.73087347162</v>
       </c>
       <c r="AE6" t="n">
-        <v>78321.59670580339</v>
+        <v>92011.31214155161</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.53000562936278e-06</v>
+        <v>1.650397805019373e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AH6" t="n">
-        <v>70846.69344127094</v>
+        <v>83229.88164947199</v>
       </c>
     </row>
     <row r="7">
@@ -4627,28 +4627,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.13139399309111</v>
+        <v>66.13671049093053</v>
       </c>
       <c r="AB7" t="n">
-        <v>76.80144960365145</v>
+        <v>90.49116503939966</v>
       </c>
       <c r="AC7" t="n">
-        <v>69.47162704500803</v>
+        <v>81.8548152532091</v>
       </c>
       <c r="AD7" t="n">
-        <v>56131.39399309111</v>
+        <v>66136.71049093052</v>
       </c>
       <c r="AE7" t="n">
-        <v>76801.44960365145</v>
+        <v>90491.16503939967</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.625082330865575e-06</v>
+        <v>1.666863102687743e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.177777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>69471.62704500803</v>
+        <v>81854.81525320909</v>
       </c>
     </row>
   </sheetData>
@@ -4924,28 +4924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.6655881002218</v>
+        <v>74.81097847108066</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.53235754800801</v>
+        <v>102.3596811715301</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.13277816099118</v>
+        <v>92.59061686325978</v>
       </c>
       <c r="AD2" t="n">
-        <v>56665.58810022179</v>
+        <v>74810.97847108066</v>
       </c>
       <c r="AE2" t="n">
-        <v>77532.357548008</v>
+        <v>102359.6811715301</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.761494415745879e-06</v>
+        <v>1.657863281811733e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.669444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>70132.77816099118</v>
+        <v>92590.61686325978</v>
       </c>
     </row>
     <row r="3">
@@ -5030,28 +5030,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>47.34758903156569</v>
+        <v>56.37770329826035</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.78306014117285</v>
+        <v>77.13846086138348</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.60025580490903</v>
+        <v>69.77647442130049</v>
       </c>
       <c r="AD3" t="n">
-        <v>47347.58903156569</v>
+        <v>56377.70329826035</v>
       </c>
       <c r="AE3" t="n">
-        <v>64783.06014117286</v>
+        <v>77138.46086138347</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.036011182346241e-05</v>
+        <v>1.960356095954863e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.256944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>58600.25580490903</v>
+        <v>69776.47442130049</v>
       </c>
     </row>
   </sheetData>
@@ -5327,28 +5327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.50815303670993</v>
+        <v>93.00487332423332</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.2595391044803</v>
+        <v>127.2533707675932</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.3547690566485</v>
+        <v>115.1084876627954</v>
       </c>
       <c r="AD2" t="n">
-        <v>83508.15303670993</v>
+        <v>93004.87332423331</v>
       </c>
       <c r="AE2" t="n">
-        <v>114259.5391044803</v>
+        <v>127253.3707675932</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.234632396759906e-06</v>
+        <v>1.317992904719687e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.093055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>103354.7690566485</v>
+        <v>115108.4876627953</v>
       </c>
     </row>
     <row r="3">
@@ -5433,28 +5433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.73359658804659</v>
+        <v>65.14497602099836</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.2571656444869</v>
+        <v>89.1342301854022</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.97928878299864</v>
+        <v>80.62738435720669</v>
       </c>
       <c r="AD3" t="n">
-        <v>55733.5965880466</v>
+        <v>65144.97602099835</v>
       </c>
       <c r="AE3" t="n">
-        <v>76257.1656444869</v>
+        <v>89134.23018540221</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.352486572897384e-06</v>
+        <v>1.703819941160442e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.393055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>68979.28878299864</v>
+        <v>80627.3843572067</v>
       </c>
     </row>
     <row r="4">
@@ -5539,28 +5539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.47073191105144</v>
+        <v>59.88211134400319</v>
       </c>
       <c r="AB4" t="n">
-        <v>69.05628201222271</v>
+        <v>81.93334655313802</v>
       </c>
       <c r="AC4" t="n">
-        <v>62.4656473780918</v>
+        <v>74.11374295229986</v>
       </c>
       <c r="AD4" t="n">
-        <v>50470.73191105144</v>
+        <v>59882.11134400319</v>
       </c>
       <c r="AE4" t="n">
-        <v>69056.28201222271</v>
+        <v>81933.34655313802</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.015107193354804e-05</v>
+        <v>1.849304850610984e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.204166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>62465.6473780918</v>
+        <v>74113.74295229986</v>
       </c>
     </row>
     <row r="5">
@@ -5645,28 +5645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>50.6211832959</v>
+        <v>60.03256272885174</v>
       </c>
       <c r="AB5" t="n">
-        <v>69.26213623441905</v>
+        <v>82.13920077533437</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.65185516224</v>
+        <v>74.29995073644805</v>
       </c>
       <c r="AD5" t="n">
-        <v>50621.18329589999</v>
+        <v>60032.56272885174</v>
       </c>
       <c r="AE5" t="n">
-        <v>69262.13623441904</v>
+        <v>82139.20077533438</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.014978311311527e-05</v>
+        <v>1.849070055518064e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.204166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>62651.85516224</v>
+        <v>74299.95073644805</v>
       </c>
     </row>
   </sheetData>
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.18976883482316</v>
+        <v>54.90716745586977</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.19887946856846</v>
+        <v>75.12640884636302</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.16726711228594</v>
+        <v>67.9564498266602</v>
       </c>
       <c r="AD2" t="n">
-        <v>46189.76883482315</v>
+        <v>54907.16745586977</v>
       </c>
       <c r="AE2" t="n">
-        <v>63198.87946856846</v>
+        <v>75126.40884636302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.01400123378817e-05</v>
+        <v>1.987115706553069e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>57167.26711228594</v>
+        <v>67956.4498266602</v>
       </c>
     </row>
     <row r="3">
@@ -6048,28 +6048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.31211770652936</v>
+        <v>54.02951632757598</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.99803847560237</v>
+        <v>73.92556785339693</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.08103269829725</v>
+        <v>66.8702154126715</v>
       </c>
       <c r="AD3" t="n">
-        <v>45312.11770652936</v>
+        <v>54029.51632757598</v>
       </c>
       <c r="AE3" t="n">
-        <v>61998.03847560237</v>
+        <v>73925.56785339693</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.035356176376703e-05</v>
+        <v>2.028964513454104e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.345833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>56081.03269829725</v>
+        <v>66870.2154126715</v>
       </c>
     </row>
   </sheetData>
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2156253250342</v>
+        <v>179.4817869590456</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8458426672672</v>
+        <v>245.5748990948579</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0549411917261</v>
+        <v>222.1375753918515</v>
       </c>
       <c r="AD2" t="n">
-        <v>159215.6253250342</v>
+        <v>179481.7869590456</v>
       </c>
       <c r="AE2" t="n">
-        <v>217845.8426672672</v>
+        <v>245574.8990948579</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.703504169158082e-06</v>
+        <v>8.092290531443402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197054.9411917261</v>
+        <v>222137.5753918515</v>
       </c>
     </row>
     <row r="3">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.42270924741123</v>
+        <v>95.68878137287152</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.1966782073623</v>
+        <v>130.9256121654046</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.34773207672517</v>
+        <v>118.430255495624</v>
       </c>
       <c r="AD3" t="n">
-        <v>75422.70924741123</v>
+        <v>95688.78137287151</v>
       </c>
       <c r="AE3" t="n">
-        <v>103196.6782073623</v>
+        <v>130925.6121654046</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.577294515762824e-06</v>
+        <v>1.30365928164663e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.741666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>93347.73207672517</v>
+        <v>118430.255495624</v>
       </c>
     </row>
     <row r="4">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.36586683963947</v>
+        <v>77.45632198363482</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.17295098225335</v>
+        <v>105.9791568697241</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.37609390607878</v>
+        <v>95.86465488078532</v>
       </c>
       <c r="AD4" t="n">
-        <v>67365.86683963946</v>
+        <v>77456.32198363483</v>
       </c>
       <c r="AE4" t="n">
-        <v>92172.95098225336</v>
+        <v>105979.1568697241</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.416324640376542e-06</v>
+        <v>1.448012837821381e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.468055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>83376.09390607878</v>
+        <v>95864.65488078533</v>
       </c>
     </row>
     <row r="5">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.87581472943619</v>
+        <v>71.96626987343154</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.66121948107181</v>
+        <v>98.46742536854255</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.58127151658621</v>
+        <v>89.06983249129277</v>
       </c>
       <c r="AD5" t="n">
-        <v>61875.81472943619</v>
+        <v>71966.26987343155</v>
       </c>
       <c r="AE5" t="n">
-        <v>84661.21948107181</v>
+        <v>98467.42536854255</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.051953522659663e-06</v>
+        <v>1.557371592499223e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.294444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>76581.27151658622</v>
+        <v>89069.83249129278</v>
       </c>
     </row>
     <row r="6">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.82212663918409</v>
+        <v>69.91258178317946</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.85127283366616</v>
+        <v>95.65747872113688</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.03950223342318</v>
+        <v>86.52806320812974</v>
       </c>
       <c r="AD6" t="n">
-        <v>59822.12663918409</v>
+        <v>69912.58178317946</v>
       </c>
       <c r="AE6" t="n">
-        <v>81851.27283366615</v>
+        <v>95657.47872113688</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.255803444201286e-06</v>
+        <v>1.592443588411199e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.244444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>74039.50223342318</v>
+        <v>86528.06320812974</v>
       </c>
     </row>
     <row r="7">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.90169714542287</v>
+        <v>66.99215228941823</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.85541236004786</v>
+        <v>91.66161824751859</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.42500107518035</v>
+        <v>82.91356204988691</v>
       </c>
       <c r="AD7" t="n">
-        <v>56901.69714542286</v>
+        <v>66992.15228941823</v>
       </c>
       <c r="AE7" t="n">
-        <v>77855.41236004786</v>
+        <v>91661.61824751859</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.579899394297173e-06</v>
+        <v>1.648203687561054e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.168055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>70425.00107518035</v>
+        <v>82913.56204988691</v>
       </c>
     </row>
     <row r="8">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>56.7510287550567</v>
+        <v>66.84148389905206</v>
       </c>
       <c r="AB8" t="n">
-        <v>77.64926122132876</v>
+        <v>91.45546710879947</v>
       </c>
       <c r="AC8" t="n">
-        <v>70.23852471180555</v>
+        <v>82.72708568651211</v>
       </c>
       <c r="AD8" t="n">
-        <v>56751.0287550567</v>
+        <v>66841.48389905207</v>
       </c>
       <c r="AE8" t="n">
-        <v>77649.26122132875</v>
+        <v>91455.46710879946</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.605474109325506e-06</v>
+        <v>1.652603769219857e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.1625</v>
       </c>
       <c r="AH8" t="n">
-        <v>70238.52471180556</v>
+        <v>82727.08568651212</v>
       </c>
     </row>
   </sheetData>
@@ -7278,28 +7278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.91354315209455</v>
+        <v>52.44576728899514</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.08444706947092</v>
+        <v>71.75861254873531</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.35007177022396</v>
+        <v>64.91007128094522</v>
       </c>
       <c r="AD2" t="n">
-        <v>43913.54315209456</v>
+        <v>52445.76728899514</v>
       </c>
       <c r="AE2" t="n">
-        <v>60084.44706947092</v>
+        <v>71758.61254873531</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.027042815951316e-05</v>
+        <v>2.058872038215586e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.420833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>54350.07177022396</v>
+        <v>64910.07128094522</v>
       </c>
     </row>
     <row r="3">
@@ -7384,28 +7384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.13673053706891</v>
+        <v>52.66895467396949</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.38982189592517</v>
+        <v>72.06398737518958</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.62630205183778</v>
+        <v>65.18630156255905</v>
       </c>
       <c r="AD3" t="n">
-        <v>44136.73053706891</v>
+        <v>52668.95467396949</v>
       </c>
       <c r="AE3" t="n">
-        <v>60389.82189592518</v>
+        <v>72063.98737518958</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.026810133415156e-05</v>
+        <v>2.058405588755019e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.420833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>54626.30205183777</v>
+        <v>65186.30156255905</v>
       </c>
     </row>
   </sheetData>
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5621851548247</v>
+        <v>125.1906886434544</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.4348388036992</v>
+        <v>171.2914232252871</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.6501805038826</v>
+        <v>154.9436102017357</v>
       </c>
       <c r="AD2" t="n">
-        <v>105562.1851548248</v>
+        <v>125190.6886434544</v>
       </c>
       <c r="AE2" t="n">
-        <v>144434.8388036992</v>
+        <v>171291.4232252871</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.036573737869816e-06</v>
+        <v>1.069122064884775e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.577777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>130650.1805038826</v>
+        <v>154943.6102017357</v>
       </c>
     </row>
     <row r="3">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.42201313202721</v>
+        <v>72.15101353032145</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.40855223206934</v>
+        <v>98.72019979021408</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.25727987871689</v>
+        <v>89.29848247693121</v>
       </c>
       <c r="AD3" t="n">
-        <v>62422.01313202721</v>
+        <v>72151.01353032145</v>
       </c>
       <c r="AE3" t="n">
-        <v>85408.55223206934</v>
+        <v>98720.19979021409</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.71146176848503e-06</v>
+        <v>1.542864611370436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.479166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>77257.27987871689</v>
+        <v>89298.48247693121</v>
       </c>
     </row>
     <row r="4">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.05231709031739</v>
+        <v>66.78131748861163</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.06149721353547</v>
+        <v>91.3731447716802</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.61141747949306</v>
+        <v>82.65262007770737</v>
       </c>
       <c r="AD4" t="n">
-        <v>57052.3170903174</v>
+        <v>66781.31748861163</v>
       </c>
       <c r="AE4" t="n">
-        <v>78061.49721353548</v>
+        <v>91373.14477168021</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.437909299673444e-06</v>
+        <v>1.6715238671503e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.288888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>70611.41747949306</v>
+        <v>82652.62007770737</v>
       </c>
     </row>
     <row r="5">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.81906859108906</v>
+        <v>63.5480689893833</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.63762397603679</v>
+        <v>86.94927153418151</v>
       </c>
       <c r="AC5" t="n">
-        <v>66.60975249483474</v>
+        <v>78.65095509304906</v>
       </c>
       <c r="AD5" t="n">
-        <v>53819.06859108906</v>
+        <v>63548.0689893833</v>
       </c>
       <c r="AE5" t="n">
-        <v>73637.62397603679</v>
+        <v>86949.27153418151</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.823057102488877e-06</v>
+        <v>1.739736404942835e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.198611111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>66609.75249483474</v>
+        <v>78650.95509304907</v>
       </c>
     </row>
     <row r="6">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>53.23712953450123</v>
+        <v>62.96612993279546</v>
       </c>
       <c r="AB6" t="n">
-        <v>72.84138928547446</v>
+        <v>86.15303684361919</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.88950932561706</v>
+        <v>77.93071192383137</v>
       </c>
       <c r="AD6" t="n">
-        <v>53237.12953450123</v>
+        <v>62966.12993279546</v>
       </c>
       <c r="AE6" t="n">
-        <v>72841.38928547446</v>
+        <v>86153.03684361919</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.93298826784637e-06</v>
+        <v>1.759206031192057e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.173611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>65889.50932561705</v>
+        <v>77930.71192383136</v>
       </c>
     </row>
   </sheetData>
@@ -8402,28 +8402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6658584929444</v>
+        <v>154.5017518652776</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5733274594875</v>
+        <v>211.3961130382115</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.2940484879701</v>
+        <v>191.2207647062131</v>
       </c>
       <c r="AD2" t="n">
-        <v>124665.8584929444</v>
+        <v>154501.7518652776</v>
       </c>
       <c r="AE2" t="n">
-        <v>170573.3274594875</v>
+        <v>211396.1130382115</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.337542137837256e-06</v>
+        <v>9.308207418455473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.963888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>154294.0484879701</v>
+        <v>191220.7647062131</v>
       </c>
     </row>
     <row r="3">
@@ -8508,28 +8508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.93287964564097</v>
+        <v>79.02041219403807</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.31700703514946</v>
+        <v>108.1192140983869</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.31552425848871</v>
+        <v>97.80046805113439</v>
       </c>
       <c r="AD3" t="n">
-        <v>68932.87964564096</v>
+        <v>79020.41219403807</v>
       </c>
       <c r="AE3" t="n">
-        <v>94317.00703514947</v>
+        <v>108119.2140983869</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.095361112551972e-06</v>
+        <v>1.41176028997993e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.613888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>85315.5242584887</v>
+        <v>97800.46805113439</v>
       </c>
     </row>
     <row r="4">
@@ -8614,28 +8614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.14179415760967</v>
+        <v>72.05873450541459</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.0251442688828</v>
+        <v>98.59393955727332</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.91046383342028</v>
+        <v>89.18427234341492</v>
       </c>
       <c r="AD4" t="n">
-        <v>62141.79415760966</v>
+        <v>72058.73450541458</v>
       </c>
       <c r="AE4" t="n">
-        <v>85025.1442688828</v>
+        <v>98593.93955727332</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.895801997158707e-06</v>
+        <v>1.551350190869226e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.379166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>76910.46383342028</v>
+        <v>89184.27234341492</v>
       </c>
     </row>
     <row r="5">
@@ -8720,28 +8720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.27301846954268</v>
+        <v>67.18995881734762</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.36347057724905</v>
+        <v>91.93226586563956</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.88457092919617</v>
+        <v>83.15837943919081</v>
       </c>
       <c r="AD5" t="n">
-        <v>57273.01846954269</v>
+        <v>67189.95881734762</v>
       </c>
       <c r="AE5" t="n">
-        <v>78363.47057724904</v>
+        <v>91932.26586563957</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.533991351101913e-06</v>
+        <v>1.66264484157826e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.219444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>70884.57092919617</v>
+        <v>83158.37943919082</v>
       </c>
     </row>
     <row r="6">
@@ -8826,28 +8826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.28443659839305</v>
+        <v>65.20137694619797</v>
       </c>
       <c r="AB6" t="n">
-        <v>75.64260513110298</v>
+        <v>89.2114004194935</v>
       </c>
       <c r="AC6" t="n">
-        <v>68.42338106247078</v>
+        <v>80.69718957246543</v>
       </c>
       <c r="AD6" t="n">
-        <v>55284.43659839305</v>
+        <v>65201.37694619797</v>
       </c>
       <c r="AE6" t="n">
-        <v>75642.60513110299</v>
+        <v>89211.4004194935</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.706145557345845e-06</v>
+        <v>1.69266703191037e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.180555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>68423.38106247078</v>
+        <v>80697.18957246543</v>
       </c>
     </row>
     <row r="7">
@@ -8932,28 +8932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>55.37965749305671</v>
+        <v>65.29659784086165</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.77289056003114</v>
+        <v>89.34168584842168</v>
       </c>
       <c r="AC7" t="n">
-        <v>68.54123223291884</v>
+        <v>80.81504074291347</v>
       </c>
       <c r="AD7" t="n">
-        <v>55379.65749305671</v>
+        <v>65296.59784086165</v>
       </c>
       <c r="AE7" t="n">
-        <v>75772.89056003114</v>
+        <v>89341.68584842168</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.699289858867104e-06</v>
+        <v>1.691471457959091e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.181944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>68541.23223291885</v>
+        <v>80815.04074291346</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>190.9959467559642</v>
+        <v>221.9228818729403</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3290804978737</v>
+        <v>303.6446775249819</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.388199832901</v>
+        <v>274.6652556700689</v>
       </c>
       <c r="AD2" t="n">
-        <v>190995.9467559643</v>
+        <v>221922.8818729403</v>
       </c>
       <c r="AE2" t="n">
-        <v>261329.0804978737</v>
+        <v>303644.6775249819</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.125064352760468e-06</v>
+        <v>7.012336005365327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.951388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>236388.199832901</v>
+        <v>274665.2556700689</v>
       </c>
     </row>
     <row r="3">
@@ -9335,28 +9335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.39071878909043</v>
+        <v>102.9802285822173</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.7306162691683</v>
+        <v>140.9020919131746</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.9717644708816</v>
+        <v>127.4545940183472</v>
       </c>
       <c r="AD3" t="n">
-        <v>82390.71878909043</v>
+        <v>102980.2285822173</v>
       </c>
       <c r="AE3" t="n">
-        <v>112730.6162691683</v>
+        <v>140902.0919131746</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.104310174339218e-06</v>
+        <v>1.20768564484247e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>101971.7644708815</v>
+        <v>127454.5940183472</v>
       </c>
     </row>
     <row r="4">
@@ -9441,28 +9441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.61044797142172</v>
+        <v>82.03321414984256</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.98057414445849</v>
+        <v>112.2414626497581</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.62944566473519</v>
+        <v>101.5292949863762</v>
       </c>
       <c r="AD4" t="n">
-        <v>71610.44797142172</v>
+        <v>82033.21414984256</v>
       </c>
       <c r="AE4" t="n">
-        <v>97980.57414445849</v>
+        <v>112241.4626497581</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.073226794200145e-06</v>
+        <v>1.372395048590339e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.529166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88629.44566473519</v>
+        <v>101529.2949863762</v>
       </c>
     </row>
     <row r="5">
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.18728080093875</v>
+        <v>76.43945477876737</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.56035756855749</v>
+        <v>104.5878342990102</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.91740414449644</v>
+        <v>94.60611818348644</v>
       </c>
       <c r="AD5" t="n">
-        <v>66187.28080093875</v>
+        <v>76439.45477876737</v>
       </c>
       <c r="AE5" t="n">
-        <v>90560.35756855749</v>
+        <v>104587.8342990102</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.654959097762116e-06</v>
+        <v>1.471285684684825e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.359722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>81917.40414449644</v>
+        <v>94606.11818348644</v>
       </c>
     </row>
     <row r="6">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.85077012838154</v>
+        <v>73.10294410621017</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.99519646990476</v>
+        <v>100.0226732003575</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.78793561385383</v>
+        <v>90.47664965284383</v>
       </c>
       <c r="AD6" t="n">
-        <v>62850.77012838154</v>
+        <v>73102.94410621017</v>
       </c>
       <c r="AE6" t="n">
-        <v>85995.19646990475</v>
+        <v>100022.6732003575</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.019203515336182e-06</v>
+        <v>1.533204821592317e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.263888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>77787.93561385383</v>
+        <v>90476.64965284383</v>
       </c>
     </row>
     <row r="7">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.95356995434119</v>
+        <v>71.20574393216982</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.39936349321951</v>
+        <v>97.42684022367222</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.43984529318813</v>
+        <v>88.12855933217811</v>
       </c>
       <c r="AD7" t="n">
-        <v>60953.56995434119</v>
+        <v>71205.74393216982</v>
       </c>
       <c r="AE7" t="n">
-        <v>83399.36349321951</v>
+        <v>97426.84022367222</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.198311186149751e-06</v>
+        <v>1.563651938569841e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.220833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>75439.84529318813</v>
+        <v>88128.55933217812</v>
       </c>
     </row>
     <row r="8">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.48664835033833</v>
+        <v>69.73882232816696</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.39225663861006</v>
+        <v>95.41973336906277</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.62429389978982</v>
+        <v>86.3130079387798</v>
       </c>
       <c r="AD8" t="n">
-        <v>59486.64835033833</v>
+        <v>69738.82232816696</v>
       </c>
       <c r="AE8" t="n">
-        <v>81392.25663861007</v>
+        <v>95419.73336906277</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.311099021547129e-06</v>
+        <v>1.582825123070466e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.193055555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>73624.29389978982</v>
+        <v>86313.0079387798</v>
       </c>
     </row>
     <row r="9">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.74086778350728</v>
+        <v>68.9930417613359</v>
       </c>
       <c r="AB9" t="n">
-        <v>80.37184676555579</v>
+        <v>94.39932349600849</v>
       </c>
       <c r="AC9" t="n">
-        <v>72.70127051286525</v>
+        <v>85.38998455185525</v>
       </c>
       <c r="AD9" t="n">
-        <v>58740.86778350727</v>
+        <v>68993.0417613359</v>
       </c>
       <c r="AE9" t="n">
-        <v>80371.84676555579</v>
+        <v>94399.3234960085</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.400505806321062e-06</v>
+        <v>1.598023683926241e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.172222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>72701.27051286525</v>
+        <v>85389.98455185525</v>
       </c>
     </row>
   </sheetData>
@@ -10268,28 +10268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.00430922751914</v>
+        <v>99.61254509722407</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.1478665949256</v>
+        <v>136.2942787972995</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.3948070462545</v>
+        <v>123.2865441191435</v>
       </c>
       <c r="AD2" t="n">
-        <v>90004.30922751914</v>
+        <v>99612.54509722407</v>
       </c>
       <c r="AE2" t="n">
-        <v>123147.8665949256</v>
+        <v>136294.2787972995</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.824165531769149e-06</v>
+        <v>1.23055853239186e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>111394.8070462545</v>
+        <v>123286.5441191435</v>
       </c>
     </row>
     <row r="3">
@@ -10374,28 +10374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.70252256458696</v>
+        <v>66.22541757972024</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.58289291158597</v>
+        <v>90.61253799176225</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.17849050039612</v>
+        <v>81.96460454134625</v>
       </c>
       <c r="AD3" t="n">
-        <v>56702.52256458697</v>
+        <v>66225.41757972025</v>
       </c>
       <c r="AE3" t="n">
-        <v>77582.89291158598</v>
+        <v>90612.53799176225</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.326592886644399e-06</v>
+        <v>1.681805401902396e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.369444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>70178.49050039612</v>
+        <v>81964.60454134624</v>
       </c>
     </row>
     <row r="4">
@@ -10480,28 +10480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>51.93118934124828</v>
+        <v>61.45408435638156</v>
       </c>
       <c r="AB4" t="n">
-        <v>71.05454429905154</v>
+        <v>84.08418937922781</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.27319831684505</v>
+        <v>76.05931235779519</v>
       </c>
       <c r="AD4" t="n">
-        <v>51931.18934124828</v>
+        <v>61454.08435638156</v>
       </c>
       <c r="AE4" t="n">
-        <v>71054.54429905154</v>
+        <v>84084.18937922781</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.002418627196722e-05</v>
+        <v>1.807597997121958e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.204166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>64273.19831684505</v>
+        <v>76059.31235779519</v>
       </c>
     </row>
     <row r="5">
@@ -10586,28 +10586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.19518867263849</v>
+        <v>60.71808368777177</v>
       </c>
       <c r="AB5" t="n">
-        <v>70.04751571420225</v>
+        <v>83.07716079437851</v>
       </c>
       <c r="AC5" t="n">
-        <v>63.36227912675997</v>
+        <v>75.1483931677101</v>
       </c>
       <c r="AD5" t="n">
-        <v>51195.18867263848</v>
+        <v>60718.08368777177</v>
       </c>
       <c r="AE5" t="n">
-        <v>70047.51571420225</v>
+        <v>83077.16079437852</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013443307151767e-05</v>
+        <v>1.827478103960534e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.180555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>63362.27912675997</v>
+        <v>75148.39316771009</v>
       </c>
     </row>
   </sheetData>
@@ -10883,28 +10883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.82625063345776</v>
+        <v>80.24435077783838</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.59340369834058</v>
+        <v>109.793860865101</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.51992797697876</v>
+        <v>99.31528888081542</v>
       </c>
       <c r="AD2" t="n">
-        <v>61826.25063345776</v>
+        <v>80244.35077783838</v>
       </c>
       <c r="AE2" t="n">
-        <v>84593.40369834058</v>
+        <v>109793.860865101</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.228918691633346e-06</v>
+        <v>1.535253196448736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.797222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>76519.92797697877</v>
+        <v>99315.28888081541</v>
       </c>
     </row>
     <row r="3">
@@ -10989,28 +10989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.8793235470697</v>
+        <v>58.04579270052524</v>
       </c>
       <c r="AB3" t="n">
-        <v>66.878846880642</v>
+        <v>79.4208143724718</v>
       </c>
       <c r="AC3" t="n">
-        <v>60.49602359941906</v>
+        <v>71.84100331659454</v>
       </c>
       <c r="AD3" t="n">
-        <v>48879.3235470697</v>
+        <v>58045.79270052524</v>
       </c>
       <c r="AE3" t="n">
-        <v>66878.846880642</v>
+        <v>79420.8143724718</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.022843805311809e-05</v>
+        <v>1.908299596117472e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>60496.02359941906</v>
+        <v>71841.00331659454</v>
       </c>
     </row>
     <row r="4">
@@ -11095,28 +11095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.47194876149842</v>
+        <v>57.63841791495397</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.32145872691653</v>
+        <v>78.86342621874631</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.99183178878579</v>
+        <v>71.33681150596126</v>
       </c>
       <c r="AD4" t="n">
-        <v>48471.94876149842</v>
+        <v>57638.41791495397</v>
       </c>
       <c r="AE4" t="n">
-        <v>66321.45872691653</v>
+        <v>78863.42621874632</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.031825568066034e-05</v>
+        <v>1.925056694461617e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.230555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>59991.83178878578</v>
+        <v>71336.81150596126</v>
       </c>
     </row>
   </sheetData>
@@ -19589,28 +19589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.42904565866615</v>
+        <v>60.48120915973035</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.36748915952722</v>
+        <v>82.75305861494577</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.65171475554877</v>
+        <v>74.85522284540204</v>
       </c>
       <c r="AD2" t="n">
-        <v>51429.04565866615</v>
+        <v>60481.20915973035</v>
       </c>
       <c r="AE2" t="n">
-        <v>70367.48915952722</v>
+        <v>82753.05861494577</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.392532052377993e-06</v>
+        <v>1.806218744569735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.534722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>63651.71475554878</v>
+        <v>74855.22284540204</v>
       </c>
     </row>
     <row r="3">
@@ -19695,28 +19695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.07165608738552</v>
+        <v>54.95322738785753</v>
       </c>
       <c r="AB3" t="n">
-        <v>63.03727239675771</v>
+        <v>75.18943007732939</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.02108359259181</v>
+        <v>68.01345639979402</v>
       </c>
       <c r="AD3" t="n">
-        <v>46071.65608738552</v>
+        <v>54953.22738785753</v>
       </c>
       <c r="AE3" t="n">
-        <v>63037.27239675771</v>
+        <v>75189.43007732939</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046479370096306e-05</v>
+        <v>2.012418635925682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.275</v>
       </c>
       <c r="AH3" t="n">
-        <v>57021.08359259181</v>
+        <v>68013.45639979403</v>
       </c>
     </row>
   </sheetData>
@@ -19992,28 +19992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.80155150183704</v>
+        <v>51.28895910651119</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.56297103598006</v>
+        <v>70.17581655868641</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.97380327396395</v>
+        <v>63.47833511871796</v>
       </c>
       <c r="AD2" t="n">
-        <v>42801.55150183704</v>
+        <v>51288.95910651119</v>
       </c>
       <c r="AE2" t="n">
-        <v>58562.97103598006</v>
+        <v>70175.81655868641</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.96679367527892e-06</v>
+        <v>2.055750187079277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.563888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>52973.80327396395</v>
+        <v>63478.33511871797</v>
       </c>
     </row>
   </sheetData>
@@ -20289,28 +20289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2283740458663</v>
+        <v>134.0488259862408</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.292300769687</v>
+        <v>183.4115175311202</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.3759829418927</v>
+        <v>165.9069797176831</v>
       </c>
       <c r="AD2" t="n">
-        <v>114228.3740458663</v>
+        <v>134048.8259862408</v>
       </c>
       <c r="AE2" t="n">
-        <v>156292.300769687</v>
+        <v>183411.5175311202</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.692103102425196e-06</v>
+        <v>1.000080061015447e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.754166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141375.9829418928</v>
+        <v>165906.9797176831</v>
       </c>
     </row>
     <row r="3">
@@ -20395,28 +20395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.72013266304502</v>
+        <v>75.71569948780389</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.92118487717029</v>
+        <v>103.5975603800845</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.33923319769053</v>
+        <v>93.71035461752453</v>
       </c>
       <c r="AD3" t="n">
-        <v>65720.13266304502</v>
+        <v>75715.69948780388</v>
       </c>
       <c r="AE3" t="n">
-        <v>89921.18487717029</v>
+        <v>103597.5603800845</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.386054420708663e-06</v>
+        <v>1.47339668059911e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.548611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>81339.23319769053</v>
+        <v>93710.35461752453</v>
       </c>
     </row>
     <row r="4">
@@ -20501,28 +20501,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.43415741284024</v>
+        <v>69.25913203700692</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.32043622218849</v>
+        <v>94.76339995025583</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.55932792311089</v>
+        <v>85.71931406029387</v>
       </c>
       <c r="AD4" t="n">
-        <v>59434.15741284024</v>
+        <v>69259.13203700692</v>
       </c>
       <c r="AE4" t="n">
-        <v>81320.43622218849</v>
+        <v>94763.39995025583</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.190331524927746e-06</v>
+        <v>1.614704995116119e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.325</v>
       </c>
       <c r="AH4" t="n">
-        <v>73559.32792311089</v>
+        <v>85719.31406029387</v>
       </c>
     </row>
     <row r="5">
@@ -20607,28 +20607,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.77499277482909</v>
+        <v>65.59996739899579</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.31380573351355</v>
+        <v>89.7567694615809</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.03052322142348</v>
+        <v>81.19050935860645</v>
       </c>
       <c r="AD5" t="n">
-        <v>55774.99277482909</v>
+        <v>65599.96739899578</v>
       </c>
       <c r="AE5" t="n">
-        <v>76313.80573351355</v>
+        <v>89756.7694615809</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.630245096950389e-06</v>
+        <v>1.691996074359305e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.219444444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>69030.52322142349</v>
+        <v>81190.50935860645</v>
       </c>
     </row>
     <row r="6">
@@ -20713,28 +20713,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>54.32778632980559</v>
+        <v>64.15276095397226</v>
       </c>
       <c r="AB6" t="n">
-        <v>74.33367402919106</v>
+        <v>87.77663775725843</v>
       </c>
       <c r="AC6" t="n">
-        <v>67.23937250782859</v>
+        <v>79.39935864501156</v>
       </c>
       <c r="AD6" t="n">
-        <v>54327.78632980559</v>
+        <v>64152.76095397226</v>
       </c>
       <c r="AE6" t="n">
-        <v>74333.67402919105</v>
+        <v>87776.63775725843</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.801655981606991e-06</v>
+        <v>1.722112290615656e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.180555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>67239.37250782859</v>
+        <v>79399.35864501155</v>
       </c>
     </row>
   </sheetData>
@@ -21010,28 +21010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.2491070224863</v>
+        <v>203.9374864851609</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.0470714392291</v>
+        <v>279.0362660957898</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.423631638792</v>
+        <v>252.4054364895485</v>
       </c>
       <c r="AD2" t="n">
-        <v>173249.1070224863</v>
+        <v>203937.4864851609</v>
       </c>
       <c r="AE2" t="n">
-        <v>237047.0714392292</v>
+        <v>279036.2660957897</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.42167218237171e-06</v>
+        <v>7.560566670115409e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.656944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>214423.631638792</v>
+        <v>252405.4364895486</v>
       </c>
     </row>
     <row r="3">
@@ -21116,28 +21116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.55018518674657</v>
+        <v>98.98065787700581</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4758287620595</v>
+        <v>135.4297028257006</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.21848650830891</v>
+        <v>122.5044820648337</v>
       </c>
       <c r="AD3" t="n">
-        <v>78550.18518674657</v>
+        <v>98980.65787700581</v>
       </c>
       <c r="AE3" t="n">
-        <v>107475.8287620595</v>
+        <v>135429.7028257006</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.359420445318314e-06</v>
+        <v>1.258378881005024e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>97218.48650830891</v>
+        <v>122504.4820648337</v>
       </c>
     </row>
     <row r="4">
@@ -21222,28 +21222,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.38952054216706</v>
+        <v>81.73276816915413</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.67829148912215</v>
+        <v>111.8303792042391</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.35601244176767</v>
+        <v>101.1574447679383</v>
       </c>
       <c r="AD4" t="n">
-        <v>71389.52054216707</v>
+        <v>81732.76816915412</v>
       </c>
       <c r="AE4" t="n">
-        <v>97678.29148912214</v>
+        <v>111830.3792042391</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.064017414253976e-06</v>
+        <v>1.378857110495612e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.554166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>88356.01244176767</v>
+        <v>101157.4447679383</v>
       </c>
     </row>
     <row r="5">
@@ -21328,28 +21328,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.23590993821581</v>
+        <v>74.40856536461065</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.89040586577468</v>
+        <v>101.8090818060448</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.50226888492563</v>
+        <v>92.09256592844517</v>
       </c>
       <c r="AD5" t="n">
-        <v>64235.90993821581</v>
+        <v>74408.56536461065</v>
       </c>
       <c r="AE5" t="n">
-        <v>87890.40586577468</v>
+        <v>101809.0818060448</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.823920500490354e-06</v>
+        <v>1.508792069700004e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>79502.26888492562</v>
+        <v>92092.56592844517</v>
       </c>
     </row>
     <row r="6">
@@ -21434,28 +21434,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.03944280098175</v>
+        <v>72.21209822737659</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.88510262732137</v>
+        <v>98.80377856759154</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.78378756957977</v>
+        <v>89.37408461309931</v>
       </c>
       <c r="AD6" t="n">
-        <v>62039.44280098175</v>
+        <v>72212.09822737658</v>
       </c>
       <c r="AE6" t="n">
-        <v>84885.10262732138</v>
+        <v>98803.77856759154</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.044848422147368e-06</v>
+        <v>1.54656828222967e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.276388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>76783.78756957977</v>
+        <v>89374.08461309932</v>
       </c>
     </row>
     <row r="7">
@@ -21540,28 +21540,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.95084499923256</v>
+        <v>69.1235004256274</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.65914685565194</v>
+        <v>94.57782279592209</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.96115108559094</v>
+        <v>85.55144812911048</v>
       </c>
       <c r="AD7" t="n">
-        <v>58950.84499923255</v>
+        <v>69123.5004256274</v>
       </c>
       <c r="AE7" t="n">
-        <v>80659.14685565194</v>
+        <v>94577.82279592208</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.375350661995347e-06</v>
+        <v>1.603080482047541e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.197222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>72961.15108559094</v>
+        <v>85551.44812911049</v>
       </c>
     </row>
     <row r="8">
@@ -21646,28 +21646,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.86868918323142</v>
+        <v>68.04134460962628</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.17849352685475</v>
+        <v>93.09716946712489</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.62180923238367</v>
+        <v>84.21210627590324</v>
       </c>
       <c r="AD8" t="n">
-        <v>57868.68918323142</v>
+        <v>68041.34460962628</v>
       </c>
       <c r="AE8" t="n">
-        <v>79178.49352685476</v>
+        <v>93097.16946712488</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.478104386631796e-06</v>
+        <v>1.620650223848252e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.172222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>71621.80923238368</v>
+        <v>84212.10627590324</v>
       </c>
     </row>
   </sheetData>
@@ -21943,28 +21943,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.6263782800412</v>
+        <v>57.81689435896727</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.95504718877484</v>
+        <v>79.10762556327019</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.5193374221014</v>
+        <v>71.5577048077798</v>
       </c>
       <c r="AD2" t="n">
-        <v>41626.3782800412</v>
+        <v>57816.89435896727</v>
       </c>
       <c r="AE2" t="n">
-        <v>56955.04718877484</v>
+        <v>79107.62556327019</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.20664834486387e-06</v>
+        <v>1.973408789745256e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.873611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>51519.3374221014</v>
+        <v>71557.7048077798</v>
       </c>
     </row>
   </sheetData>
@@ -22240,28 +22240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.76456683843632</v>
+        <v>86.43571393402324</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.7184699100095</v>
+        <v>118.2651570790538</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.86954927301066</v>
+        <v>106.9780964736502</v>
       </c>
       <c r="AD2" t="n">
-        <v>67764.56683843632</v>
+        <v>86435.71393402324</v>
       </c>
       <c r="AE2" t="n">
-        <v>92718.4699100095</v>
+        <v>118265.1570790538</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.699419661009868e-06</v>
+        <v>1.41856612848642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.945833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>83869.54927301066</v>
+        <v>106978.0964736502</v>
       </c>
     </row>
     <row r="3">
@@ -22346,28 +22346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.60750917067322</v>
+        <v>61.90050179973191</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.97991492679535</v>
+        <v>84.69499741976708</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.11025287064314</v>
+        <v>76.61182573622006</v>
       </c>
       <c r="AD3" t="n">
-        <v>52607.50917067322</v>
+        <v>61900.50179973191</v>
       </c>
       <c r="AE3" t="n">
-        <v>71979.91492679535</v>
+        <v>84694.99741976708</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.715518308591531e-06</v>
+        <v>1.790018702714788e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.334722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>65110.25287064313</v>
+        <v>76611.82573622005</v>
       </c>
     </row>
     <row r="4">
@@ -22452,28 +22452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>49.29288938785154</v>
+        <v>58.58588201691023</v>
       </c>
       <c r="AB4" t="n">
-        <v>67.44470590923663</v>
+        <v>80.15978840220836</v>
       </c>
       <c r="AC4" t="n">
-        <v>61.00787783651293</v>
+        <v>72.50945070208985</v>
       </c>
       <c r="AD4" t="n">
-        <v>49292.88938785154</v>
+        <v>58585.88201691023</v>
       </c>
       <c r="AE4" t="n">
-        <v>67444.70590923663</v>
+        <v>80159.78840220836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.02844546189896e-05</v>
+        <v>1.894841379582732e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.205555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>61007.87783651293</v>
+        <v>72509.45070208985</v>
       </c>
     </row>
   </sheetData>
@@ -22749,28 +22749,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.54596341864224</v>
+        <v>116.8028996998545</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.4666905735162</v>
+        <v>159.8148803495277</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.7288169468921</v>
+        <v>144.562372470606</v>
       </c>
       <c r="AD2" t="n">
-        <v>97545.96341864225</v>
+        <v>116802.8996998545</v>
       </c>
       <c r="AE2" t="n">
-        <v>133466.6905735162</v>
+        <v>159814.8803495277</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.410124733555315e-06</v>
+        <v>1.145122003661525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.406944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>120728.8169468921</v>
+        <v>144562.372470606</v>
       </c>
     </row>
     <row r="3">
@@ -22855,28 +22855,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.97751636493761</v>
+        <v>68.60602925981928</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.69563979486719</v>
+        <v>93.86979591764714</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.99416118990565</v>
+        <v>84.91099434237591</v>
       </c>
       <c r="AD3" t="n">
-        <v>58977.5163649376</v>
+        <v>68606.02925981928</v>
       </c>
       <c r="AE3" t="n">
-        <v>80695.63979486719</v>
+        <v>93869.79591764713</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.091085390801528e-06</v>
+        <v>1.624056059888655e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.401388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>72994.16118990566</v>
+        <v>84910.99434237591</v>
       </c>
     </row>
     <row r="4">
@@ -22961,28 +22961,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.68983788789539</v>
+        <v>64.31835078277706</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.82904894355674</v>
+        <v>88.00320506633668</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.68746953563043</v>
+        <v>79.6043026881007</v>
       </c>
       <c r="AD4" t="n">
-        <v>54689.8378878954</v>
+        <v>64318.35078277707</v>
       </c>
       <c r="AE4" t="n">
-        <v>74829.04894355674</v>
+        <v>88003.20506633668</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.679726998866845e-06</v>
+        <v>1.729212587364281e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.255555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>67687.46953563043</v>
+        <v>79604.3026881007</v>
       </c>
     </row>
     <row r="5">
@@ -23067,28 +23067,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>52.21421795040688</v>
+        <v>61.84273084528856</v>
       </c>
       <c r="AB5" t="n">
-        <v>71.44179652844313</v>
+        <v>84.6159526512231</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.62349173697557</v>
+        <v>76.54032488944583</v>
       </c>
       <c r="AD5" t="n">
-        <v>52214.21795040688</v>
+        <v>61842.73084528856</v>
       </c>
       <c r="AE5" t="n">
-        <v>71441.79652844314</v>
+        <v>84615.9526512231</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.001696958682093e-05</v>
+        <v>1.789458514563858e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.180555555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>64623.49173697557</v>
+        <v>76540.32488944582</v>
       </c>
     </row>
   </sheetData>
